--- a/public/assets/template-excel/Data Mapping Rombel.xlsx
+++ b/public/assets/template-excel/Data Mapping Rombel.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LaravelApp\project-skripsi\public\assets\template-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simobel\Project-Skripsi\public\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133646EF-AE12-48D8-84A3-696392547B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NISN</t>
   </si>
@@ -27,37 +39,25 @@
     <t>Nama Siswa</t>
   </si>
   <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>aktif</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Khoirul Anam</t>
-  </si>
-  <si>
-    <t>087687675756</t>
-  </si>
-  <si>
-    <t>1234565431</t>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>XI IPA</t>
   </si>
   <si>
     <t>Aldi Nifratama</t>
   </si>
   <si>
-    <t>87656478376</t>
+    <t>Tidak aktif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,59 +391,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1234565431</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
